--- a/data/trans_orig/Q04C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q04C_2023-Edad-trans_orig.xlsx
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>92.7219769101917</v>
+        <v>92.67577842193201</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>91.1988547779949</v>
+        <v>90.81450806391472</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92.74902915686665</v>
+        <v>92.76511757797699</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>103.1166581649959</v>
+        <v>103.9331961319964</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>100.2550473738712</v>
+        <v>99.72635610396522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>99.88067462223385</v>
+        <v>99.82982554685928</v>
       </c>
     </row>
     <row r="7">
@@ -618,10 +618,10 @@
         <v>98.48639522628987</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>93.57834622222761</v>
+        <v>93.57834622222759</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96.08670512101666</v>
+        <v>96.08670512101665</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>93.03931321969623</v>
+        <v>93.01572482550402</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>90.55902679609434</v>
+        <v>90.45141065281427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>92.83297070352319</v>
+        <v>92.59241656951342</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>108.1810125173001</v>
+        <v>107.4344655782344</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>97.12865868328916</v>
+        <v>97.44214053567948</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>101.4205673041598</v>
+        <v>101.4052922816901</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>92.94028007444412</v>
+        <v>92.90253110993727</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>94.42354671827164</v>
+        <v>94.37784970170901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>94.37345210886178</v>
+        <v>94.19688839738869</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>98.37095407238219</v>
+        <v>98.39244593543614</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>98.99733020642923</v>
+        <v>99.03308348628154</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97.84093881557394</v>
+        <v>97.86801825684523</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>99.7468654749361</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>99.94681954279756</v>
+        <v>99.94681954279757</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>99.84647592733998</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>97.07941754643697</v>
+        <v>97.02424595378268</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>97.87694733287498</v>
+        <v>97.91476865967029</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98.16660298377168</v>
+        <v>98.12047162049181</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>103.4284960068432</v>
+        <v>103.0503645935383</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>102.2962592953406</v>
+        <v>102.2392774728579</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>101.7198635243067</v>
+        <v>101.8952625098145</v>
       </c>
     </row>
     <row r="16">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>103.1604326746836</v>
+        <v>103.1604326746835</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>100.9410228758297</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>100.1510279242025</v>
+        <v>99.99771980958876</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>98.81820398949048</v>
+        <v>98.72892408824343</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>100.0518957687146</v>
+        <v>100.0856611704282</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>106.9415321066405</v>
+        <v>106.8162655343592</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>103.9109567024826</v>
+        <v>103.6721013571917</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>104.1722987964026</v>
+        <v>104.2747268641235</v>
       </c>
     </row>
     <row r="19">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>98.74887561960064</v>
+        <v>98.77463064916488</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>98.05763229069066</v>
+        <v>97.97504237148529</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>99.22599770653693</v>
+        <v>99.16827765178823</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>104.8849393328734</v>
+        <v>104.7490348015512</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>103.105438158029</v>
+        <v>102.763818358955</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>103.0310716996815</v>
+        <v>103.0460180895774</v>
       </c>
     </row>
     <row r="22">
@@ -896,7 +896,7 @@
         <v>96.96580671694252</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>99.79192439563707</v>
+        <v>99.79192439563704</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>100.3587638931958</v>
+        <v>100.4790204251768</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>94.84932075315211</v>
+        <v>94.95045556983743</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97.88920611868372</v>
+        <v>97.7902969544954</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>107.3834149205119</v>
+        <v>107.4945037227614</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>99.48461547803066</v>
+        <v>99.71728925941778</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>101.8583986499761</v>
+        <v>101.8205334918655</v>
       </c>
     </row>
     <row r="25">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>99.7066431624573</v>
+        <v>99.70664316245728</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>97.96794578663156</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>98.22438132829119</v>
+        <v>98.26126641646519</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>97.03715843406515</v>
+        <v>97.02348711374559</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>97.95652304579369</v>
+        <v>97.95790118429818</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>101.4075618059946</v>
+        <v>101.3258760055758</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>99.03769534975852</v>
+        <v>99.1618718965771</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>99.86026272587067</v>
+        <v>99.83538775534581</v>
       </c>
     </row>
     <row r="28">
